--- a/data/case1/14/cost_6.xlsx
+++ b/data/case1/14/cost_6.xlsx
@@ -63,13 +63,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>157.77079974854598</v>
+        <v>157.76585314408419</v>
       </c>
       <c r="B1" s="0">
-        <v>4.4270284848160202</v>
+        <v>4.4375252886985628</v>
       </c>
       <c r="C1" s="0">
-        <v>3.4218199608610562</v>
+        <v>3.3978799739073708</v>
       </c>
     </row>
   </sheetData>
